--- a/SMARTS/Data_Dictionaries/Stormwater_Inspections_DataDictionary.xlsx
+++ b/SMARTS/Data_Dictionaries/Stormwater_Inspections_DataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\David\Stormwater\_SMARTS_Data_Download_Automation\Data_Dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/SMARTS/Data_Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE7A06-50DA-4CD9-A6F0-1F21674D8656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{32EE7A06-50DA-4CD9-A6F0-1F21674D8656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3EB12BF-A86F-4722-A01A-3114E99D7EE2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73A369D3-E501-4417-A57B-32D283C67892}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73A369D3-E501-4417-A57B-32D283C67892}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspections" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="173">
   <si>
     <t>Field Title</t>
   </si>
@@ -584,6 +584,44 @@
   </si>
   <si>
     <t>Unit of measure of the facility/site size (Acres or SqFt).</t>
+  </si>
+  <si>
+    <t>Type of inspection performed: 
+- A Type Compliance:  A comprehensive inspection of a regulated facility that includes a thorough pre-inspection review of Board files and a detailed on-site inspection. Included in the inspection is a review of all pertinent records and collection of samples for analysis.
+- B Type Compliance: A routine inspection of a regulated facility, which is less intensive than an “A” level inspection and does not include sampling.
+- Complaint: Includes any inspection made in response to a complaint or reported incident, such as a spill.
+- Enforcement Follow-up: Includes inspections specifically made to verify compliance with enforcement mandates.
+- Inspection from Vehicle: Inspections conducted by Regional Water Board staff that does not require the inspector to physically walk the site where permit compliance can be visually determined. This type of inspection is appropriate for closed facilities or abandoned construction sites.
+- NEC (No Exposure Certification): Inspections conducted by Regional Board staff to determine whether or not all industrial materials, wastes and activities are protected by a permanent storm-resistant shelter thereby preventing exposure to rain, snow, snowmelt, and/or runoff.
+- NOT (Notice of Termination): Inspections conducted by Regional Board staff to determine whether or not facility/site conditions described within the General Industrial Storm water or Construction Storm water Permits have been satisfied prior to termination of coverage.
+- Non-Filer/NONA: Inspections conducted by either Regional Board staff or contracted staff to determine whether or not the facility/site requires either Industrial or Construction Storm Water General Permit coverage. This type may also be used for Notice of Non-Applicability (NONA) inspections until the 1997 Industrial Storm Water General Permit is reissued.
+- Non-Compliance Follow-up: Includes inspections specifically made to verify corrections of noncompliance where no enforcement action has been initiated.</t>
+  </si>
+  <si>
+    <t>Date the inspection was performed.</t>
+  </si>
+  <si>
+    <t>Regional Water Quality Control Board office that has primary responsibility for regulation of the facility: 
+- 1: North Coast
+- 2: San Francisco Bay
+- 3: Central Coast
+- 4: Los Angeles
+- 5F: Central Valley (Fresno)
+- 5R: Central Valley (Redding)
+- 5S: Central Valley (Sacramento)
+- 6: Lahontan
+- 7: Colorado River
+- 8: Santa Ana
+- 9: San Diego</t>
+  </si>
+  <si>
+    <t>VIRTUAL_INSPECTION</t>
+  </si>
+  <si>
+    <t>FINAL_INSP_RPT_UPLOAD_DATE</t>
+  </si>
+  <si>
+    <t>Used to enter the inspection results/findings.</t>
   </si>
 </sst>
 </file>
@@ -779,46 +817,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,10 +873,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -892,9 +929,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -932,7 +969,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1038,7 +1075,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1180,7 +1217,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1188,541 +1225,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9B1353-0134-449B-8A87-2DB58E793A23}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="122.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="122.109375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="17" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="17" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="17" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="D11" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="17" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="17" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="17" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="D16" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D17" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="C18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="16" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="17" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="D25" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D29" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="C34" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="16" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="16" t="s">
+      <c r="D35" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B34 B42:B1048576">
+  <conditionalFormatting sqref="C1:C36 C44:C1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
@@ -1734,7 +1799,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{4E0F304F-3107-4AAF-A837-F7B5281CC604}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36" xr:uid="{4E0F304F-3107-4AAF-A837-F7B5281CC604}">
       <formula1>"text, numeric, timestamp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1751,23 +1816,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="26" style="10" customWidth="1"/>
-    <col min="13" max="13" width="63.5703125" style="10" customWidth="1"/>
-    <col min="16" max="18" width="22.5703125" customWidth="1"/>
-    <col min="19" max="19" width="80.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="63.5546875" customWidth="1"/>
+    <col min="16" max="18" width="22.5546875" customWidth="1"/>
+    <col min="19" max="19" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -1780,14 +1845,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>110</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1815,37 +1880,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:19" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="str" cm="1">
+      <c r="B2" s="10" t="str" cm="1">
         <f t="array" ref="B2">IF(IFERROR(IFERROR(INDEX(K:K,$G2),INDEX(R:R,$H2)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G2),INDEX(R:R,$H2)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C2" s="12" t="str" cm="1">
+      <c r="C2" s="11" t="str" cm="1">
         <f t="array" ref="C2">IF(IFERROR(IFERROR(INDEX(L:L,$G2),INDEX(P:P,$H2)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G2),INDEX(P:P,$H2)),"-"))</f>
         <v>Waste Discharge ID</v>
       </c>
-      <c r="D2" s="11" t="str" cm="1">
+      <c r="D2" s="10" t="str" cm="1">
         <f t="array" ref="D2">IF(IFERROR(IFERROR(INDEX(M:M,$G2),INDEX(S:S,$H2)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G2),INDEX(S:S,$H2)),"-"))</f>
         <v xml:space="preserve">Identification number associated with a waste discharge. </v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <f t="shared" ref="G2:G34" si="0">MATCH(F2,J:J,0)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <f t="shared" ref="H2:H34" si="1">MATCH(F2,Q:Q,0)</f>
         <v>12</v>
       </c>
@@ -1874,37 +1939,37 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="str" cm="1">
+      <c r="B3" s="10" t="str" cm="1">
         <f t="array" ref="B3">IF(IFERROR(IFERROR(INDEX(K:K,$G3),INDEX(R:R,$H3)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G3),INDEX(R:R,$H3)),"-"))</f>
         <v>Number</v>
       </c>
-      <c r="C3" s="12" t="str" cm="1">
+      <c r="C3" s="11" t="str" cm="1">
         <f t="array" ref="C3">IF(IFERROR(IFERROR(INDEX(L:L,$G3),INDEX(P:P,$H3)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G3),INDEX(P:P,$H3)),"-"))</f>
         <v>Regulatory Measure ID (Application ID)</v>
       </c>
-      <c r="D3" s="11" t="str" cm="1">
+      <c r="D3" s="10" t="str" cm="1">
         <f t="array" ref="D3">IF(IFERROR(IFERROR(INDEX(M:M,$G3),INDEX(S:S,$H3)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G3),INDEX(S:S,$H3)),"-"))</f>
         <v>A unique Identification number associated with a storm water application.  Universal number used to link the application to inspections, violations, and enforcement actions.</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H3" s="22" t="e">
+      <c r="H3" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -1933,38 +1998,38 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="11" t="str" cm="1">
+      <c r="B4" s="10" t="str" cm="1">
         <f t="array" ref="B4">IF(IFERROR(IFERROR(INDEX(K:K,$G4),INDEX(R:R,$H4)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G4),INDEX(R:R,$H4)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C4" s="12" t="str" cm="1">
+      <c r="C4" s="11" t="str" cm="1">
         <f t="array" ref="C4">IF(IFERROR(IFERROR(INDEX(L:L,$G4),INDEX(P:P,$H4)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G4),INDEX(P:P,$H4)),"-"))</f>
         <v>Inspection ID</v>
       </c>
-      <c r="D4" s="11" t="str" cm="1">
+      <c r="D4" s="10" t="str" cm="1">
         <f t="array" ref="D4">IF(IFERROR(IFERROR(INDEX(M:M,$G4),INDEX(S:S,$H4)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G4),INDEX(S:S,$H4)),"-"))</f>
         <v>System-generated unique identifier for the inspection
 record.</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="22" t="e">
+      <c r="G4" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1993,37 +2058,37 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="11" t="str" cm="1">
+      <c r="B5" s="10" t="str" cm="1">
         <f t="array" ref="B5">IF(IFERROR(IFERROR(INDEX(K:K,$G5),INDEX(R:R,$H5)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G5),INDEX(R:R,$H5)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C5" s="12" t="str" cm="1">
+      <c r="C5" s="11" t="str" cm="1">
         <f t="array" ref="C5">IF(IFERROR(IFERROR(INDEX(L:L,$G5),INDEX(P:P,$H5)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G5),INDEX(P:P,$H5)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D5" s="11" t="str" cm="1">
+      <c r="D5" s="10" t="str" cm="1">
         <f t="array" ref="D5">IF(IFERROR(IFERROR(INDEX(M:M,$G5),INDEX(S:S,$H5)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G5),INDEX(S:S,$H5)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="22" t="e">
+      <c r="G5" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="22" t="e">
+      <c r="H5" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2048,37 +2113,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="11" t="str" cm="1">
+      <c r="B6" s="10" t="str" cm="1">
         <f t="array" ref="B6">IF(IFERROR(IFERROR(INDEX(K:K,$G6),INDEX(R:R,$H6)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G6),INDEX(R:R,$H6)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C6" s="12" t="str" cm="1">
+      <c r="C6" s="11" t="str" cm="1">
         <f t="array" ref="C6">IF(IFERROR(IFERROR(INDEX(L:L,$G6),INDEX(P:P,$H6)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G6),INDEX(P:P,$H6)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D6" s="11" t="str" cm="1">
+      <c r="D6" s="10" t="str" cm="1">
         <f t="array" ref="D6">IF(IFERROR(IFERROR(INDEX(M:M,$G6),INDEX(S:S,$H6)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G6),INDEX(S:S,$H6)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="22" t="e">
+      <c r="G6" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H6" s="22" t="e">
+      <c r="H6" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2107,37 +2172,37 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="11" t="str" cm="1">
+      <c r="B7" s="10" t="str" cm="1">
         <f t="array" ref="B7">IF(IFERROR(IFERROR(INDEX(K:K,$G7),INDEX(R:R,$H7)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G7),INDEX(R:R,$H7)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C7" s="12" t="str" cm="1">
+      <c r="C7" s="11" t="str" cm="1">
         <f t="array" ref="C7">IF(IFERROR(IFERROR(INDEX(L:L,$G7),INDEX(P:P,$H7)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G7),INDEX(P:P,$H7)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D7" s="11" t="str" cm="1">
+      <c r="D7" s="10" t="str" cm="1">
         <f t="array" ref="D7">IF(IFERROR(IFERROR(INDEX(M:M,$G7),INDEX(S:S,$H7)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G7),INDEX(S:S,$H7)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="22" t="e">
+      <c r="G7" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H7" s="22" t="e">
+      <c r="H7" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2160,37 +2225,37 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:19" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="11" t="str" cm="1">
+      <c r="B8" s="10" t="str" cm="1">
         <f t="array" ref="B8">IF(IFERROR(IFERROR(INDEX(K:K,$G8),INDEX(R:R,$H8)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G8),INDEX(R:R,$H8)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C8" s="12" t="str" cm="1">
+      <c r="C8" s="11" t="str" cm="1">
         <f t="array" ref="C8">IF(IFERROR(IFERROR(INDEX(L:L,$G8),INDEX(P:P,$H8)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G8),INDEX(P:P,$H8)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D8" s="11" t="str" cm="1">
+      <c r="D8" s="10" t="str" cm="1">
         <f t="array" ref="D8">IF(IFERROR(IFERROR(INDEX(M:M,$G8),INDEX(S:S,$H8)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G8),INDEX(S:S,$H8)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="22" t="e">
+      <c r="G8" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H8" s="22" t="e">
+      <c r="H8" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2219,34 +2284,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="11" t="str" cm="1">
+      <c r="B9" s="10" t="str" cm="1">
         <f t="array" ref="B9">IF(IFERROR(IFERROR(INDEX(K:K,$G9),INDEX(R:R,$H9)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G9),INDEX(R:R,$H9)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C9" s="12" t="str" cm="1">
+      <c r="C9" s="11" t="str" cm="1">
         <f t="array" ref="C9">IF(IFERROR(IFERROR(INDEX(L:L,$G9),INDEX(P:P,$H9)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G9),INDEX(P:P,$H9)),"-"))</f>
         <v>Inspection Type</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="22" t="e">
+      <c r="G9" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2275,38 +2340,38 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="11" t="str" cm="1">
+      <c r="B10" s="10" t="str" cm="1">
         <f t="array" ref="B10">IF(IFERROR(IFERROR(INDEX(K:K,$G10),INDEX(R:R,$H10)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G10),INDEX(R:R,$H10)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C10" s="12" t="str" cm="1">
+      <c r="C10" s="11" t="str" cm="1">
         <f t="array" ref="C10">IF(IFERROR(IFERROR(INDEX(L:L,$G10),INDEX(P:P,$H10)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G10),INDEX(P:P,$H10)),"-"))</f>
         <v>Inspection Date</v>
       </c>
-      <c r="D10" s="11" t="str" cm="1">
+      <c r="D10" s="10" t="str" cm="1">
         <f t="array" ref="D10">IF(IFERROR(IFERROR(INDEX(M:M,$G10),INDEX(S:S,$H10)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G10),INDEX(S:S,$H10)),"-"))</f>
         <v>Date the inspection was
 performed.</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="22" t="e">
+      <c r="G10" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2335,37 +2400,37 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="11" t="str" cm="1">
+      <c r="B11" s="10" t="str" cm="1">
         <f t="array" ref="B11">IF(IFERROR(IFERROR(INDEX(K:K,$G11),INDEX(R:R,$H11)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G11),INDEX(R:R,$H11)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C11" s="12" t="str" cm="1">
+      <c r="C11" s="11" t="str" cm="1">
         <f t="array" ref="C11">IF(IFERROR(IFERROR(INDEX(L:L,$G11),INDEX(P:P,$H11)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G11),INDEX(P:P,$H11)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D11" s="11" t="str" cm="1">
+      <c r="D11" s="10" t="str" cm="1">
         <f t="array" ref="D11">IF(IFERROR(IFERROR(INDEX(M:M,$G11),INDEX(S:S,$H11)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G11),INDEX(S:S,$H11)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="22" t="e">
+      <c r="G11" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H11" s="22" t="e">
+      <c r="H11" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2394,37 +2459,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="11" t="str" cm="1">
+      <c r="B12" s="10" t="str" cm="1">
         <f t="array" ref="B12">IF(IFERROR(IFERROR(INDEX(K:K,$G12),INDEX(R:R,$H12)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G12),INDEX(R:R,$H12)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C12" s="12" t="str" cm="1">
+      <c r="C12" s="11" t="str" cm="1">
         <f t="array" ref="C12">IF(IFERROR(IFERROR(INDEX(L:L,$G12),INDEX(P:P,$H12)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G12),INDEX(P:P,$H12)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D12" s="11" t="str" cm="1">
+      <c r="D12" s="10" t="str" cm="1">
         <f t="array" ref="D12">IF(IFERROR(IFERROR(INDEX(M:M,$G12),INDEX(S:S,$H12)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G12),INDEX(S:S,$H12)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="22" t="e">
+      <c r="G12" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H12" s="22" t="e">
+      <c r="H12" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2453,37 +2518,37 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="11" t="str" cm="1">
+      <c r="B13" s="10" t="str" cm="1">
         <f t="array" ref="B13">IF(IFERROR(IFERROR(INDEX(K:K,$G13),INDEX(R:R,$H13)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G13),INDEX(R:R,$H13)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C13" s="12" t="str" cm="1">
+      <c r="C13" s="11" t="str" cm="1">
         <f t="array" ref="C13">IF(IFERROR(IFERROR(INDEX(L:L,$G13),INDEX(P:P,$H13)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G13),INDEX(P:P,$H13)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D13" s="11" t="str" cm="1">
+      <c r="D13" s="10" t="str" cm="1">
         <f t="array" ref="D13">IF(IFERROR(IFERROR(INDEX(M:M,$G13),INDEX(S:S,$H13)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G13),INDEX(S:S,$H13)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="22" t="e">
+      <c r="G13" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H13" s="22" t="e">
+      <c r="H13" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2506,37 +2571,37 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="11" t="str" cm="1">
+      <c r="B14" s="10" t="str" cm="1">
         <f t="array" ref="B14">IF(IFERROR(IFERROR(INDEX(K:K,$G14),INDEX(R:R,$H14)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G14),INDEX(R:R,$H14)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C14" s="12" t="str" cm="1">
+      <c r="C14" s="11" t="str" cm="1">
         <f t="array" ref="C14">IF(IFERROR(IFERROR(INDEX(L:L,$G14),INDEX(P:P,$H14)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G14),INDEX(P:P,$H14)),"-"))</f>
         <v>Agency</v>
       </c>
-      <c r="D14" s="11" t="str" cm="1">
+      <c r="D14" s="10" t="str" cm="1">
         <f t="array" ref="D14">IF(IFERROR(IFERROR(INDEX(M:M,$G14),INDEX(S:S,$H14)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G14),INDEX(S:S,$H14)),"-"))</f>
         <v>Organization responsible for the regulated facility.</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="22" t="e">
+      <c r="G14" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2565,37 +2630,37 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="11" t="str" cm="1">
+      <c r="B15" s="10" t="str" cm="1">
         <f t="array" ref="B15">IF(IFERROR(IFERROR(INDEX(K:K,$G15),INDEX(R:R,$H15)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G15),INDEX(R:R,$H15)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C15" s="12" t="str" cm="1">
+      <c r="C15" s="11" t="str" cm="1">
         <f t="array" ref="C15">IF(IFERROR(IFERROR(INDEX(L:L,$G15),INDEX(P:P,$H15)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G15),INDEX(P:P,$H15)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D15" s="11" t="str" cm="1">
+      <c r="D15" s="10" t="str" cm="1">
         <f t="array" ref="D15">IF(IFERROR(IFERROR(INDEX(M:M,$G15),INDEX(S:S,$H15)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G15),INDEX(S:S,$H15)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="22" t="e">
+      <c r="G15" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="22" t="e">
+      <c r="H15" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2624,37 +2689,37 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="11" t="str" cm="1">
+      <c r="B16" s="10" t="str" cm="1">
         <f t="array" ref="B16">IF(IFERROR(IFERROR(INDEX(K:K,$G16),INDEX(R:R,$H16)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G16),INDEX(R:R,$H16)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C16" s="12" t="str" cm="1">
+      <c r="C16" s="11" t="str" cm="1">
         <f t="array" ref="C16">IF(IFERROR(IFERROR(INDEX(L:L,$G16),INDEX(P:P,$H16)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G16),INDEX(P:P,$H16)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D16" s="11" t="str" cm="1">
+      <c r="D16" s="10" t="str" cm="1">
         <f t="array" ref="D16">IF(IFERROR(IFERROR(INDEX(M:M,$G16),INDEX(S:S,$H16)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G16),INDEX(S:S,$H16)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="22" t="e">
+      <c r="G16" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="22" t="e">
+      <c r="H16" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2683,38 +2748,38 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="11" t="str" cm="1">
+      <c r="B17" s="10" t="str" cm="1">
         <f t="array" ref="B17">IF(IFERROR(IFERROR(INDEX(K:K,$G17),INDEX(R:R,$H17)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G17),INDEX(R:R,$H17)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C17" s="12" t="str" cm="1">
+      <c r="C17" s="11" t="str" cm="1">
         <f t="array" ref="C17">IF(IFERROR(IFERROR(INDEX(L:L,$G17),INDEX(P:P,$H17)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G17),INDEX(P:P,$H17)),"-"))</f>
         <v>Inspection Notes</v>
       </c>
-      <c r="D17" s="11" t="str" cm="1">
+      <c r="D17" s="10" t="str" cm="1">
         <f t="array" ref="D17">IF(IFERROR(IFERROR(INDEX(M:M,$G17),INDEX(S:S,$H17)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G17),INDEX(S:S,$H17)),"-"))</f>
         <v>The Inspection Notes is used to enter the inspection
 results/findings.</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="22" t="e">
+      <c r="G17" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -2743,37 +2808,37 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="11" t="str" cm="1">
+      <c r="B18" s="10" t="str" cm="1">
         <f t="array" ref="B18">IF(IFERROR(IFERROR(INDEX(K:K,$G18),INDEX(R:R,$H18)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G18),INDEX(R:R,$H18)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C18" s="12" t="str" cm="1">
+      <c r="C18" s="11" t="str" cm="1">
         <f t="array" ref="C18">IF(IFERROR(IFERROR(INDEX(L:L,$G18),INDEX(P:P,$H18)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G18),INDEX(P:P,$H18)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D18" s="11" t="str" cm="1">
+      <c r="D18" s="10" t="str" cm="1">
         <f t="array" ref="D18">IF(IFERROR(IFERROR(INDEX(M:M,$G18),INDEX(S:S,$H18)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G18),INDEX(S:S,$H18)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="22" t="e">
+      <c r="G18" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="22" t="e">
+      <c r="H18" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2802,37 +2867,37 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="11" t="str" cm="1">
+      <c r="B19" s="10" t="str" cm="1">
         <f t="array" ref="B19">IF(IFERROR(IFERROR(INDEX(K:K,$G19),INDEX(R:R,$H19)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G19),INDEX(R:R,$H19)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C19" s="12" t="str" cm="1">
+      <c r="C19" s="11" t="str" cm="1">
         <f t="array" ref="C19">IF(IFERROR(IFERROR(INDEX(L:L,$G19),INDEX(P:P,$H19)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G19),INDEX(P:P,$H19)),"-"))</f>
         <v>Regulatory Measure Type (Permit Type)</v>
       </c>
-      <c r="D19" s="11" t="str" cm="1">
+      <c r="D19" s="10" t="str" cm="1">
         <f t="array" ref="D19">IF(IFERROR(IFERROR(INDEX(M:M,$G19),INDEX(S:S,$H19)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G19),INDEX(S:S,$H19)),"-"))</f>
         <v>Type of permit or application.</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H19" s="22" t="e">
+      <c r="H19" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -2859,41 +2924,41 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:19" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="11" t="str" cm="1">
+      <c r="B20" s="10" t="str" cm="1">
         <f t="array" ref="B20">IF(IFERROR(IFERROR(INDEX(K:K,$G20),INDEX(R:R,$H20)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G20),INDEX(R:R,$H20)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C20" s="12" t="str" cm="1">
+      <c r="C20" s="11" t="str" cm="1">
         <f t="array" ref="C20">IF(IFERROR(IFERROR(INDEX(L:L,$G20),INDEX(P:P,$H20)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G20),INDEX(P:P,$H20)),"-"))</f>
         <v>Regional Water Board number</v>
       </c>
-      <c r="D20" s="11" t="str" cm="1">
+      <c r="D20" s="10" t="str" cm="1">
         <f t="array" ref="D20">IF(IFERROR(IFERROR(INDEX(M:M,$G20),INDEX(S:S,$H20)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G20),INDEX(S:S,$H20)),"-"))</f>
         <v>Regional Water Quality Control Board office that has primary responsibility for regulation of the facility: “1” - North Coast; “2” - San Francisco Bay; “3” - Central Coast; “4” - Los Angeles; “5F” - Central Valley (Fresno); “5R” - Central Valley (Redding); “5S” - Central Valley (Sacramento); “6” - Lahontan; “7” - Colorado River; “8” - Santa Ana; “9” - San Diego.</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H20" s="22" t="e">
+      <c r="H20" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>49</v>
       </c>
       <c r="K20" s="4"/>
@@ -2912,201 +2977,201 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="11" t="str" cm="1">
+      <c r="B21" s="10" t="str" cm="1">
         <f t="array" ref="B21">IF(IFERROR(IFERROR(INDEX(K:K,$G21),INDEX(R:R,$H21)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G21),INDEX(R:R,$H21)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C21" s="12" t="str" cm="1">
+      <c r="C21" s="11" t="str" cm="1">
         <f t="array" ref="C21">IF(IFERROR(IFERROR(INDEX(L:L,$G21),INDEX(P:P,$H21)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G21),INDEX(P:P,$H21)),"-"))</f>
         <v>Facility/Site Name</v>
       </c>
-      <c r="D21" s="11" t="str" cm="1">
+      <c r="D21" s="10" t="str" cm="1">
         <f t="array" ref="D21">IF(IFERROR(IFERROR(INDEX(M:M,$G21),INDEX(S:S,$H21)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G21),INDEX(S:S,$H21)),"-"))</f>
         <v>Name of the regulated facility.</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>50</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="11" t="str" cm="1">
+      <c r="B22" s="10" t="str" cm="1">
         <f t="array" ref="B22">IF(IFERROR(IFERROR(INDEX(K:K,$G22),INDEX(R:R,$H22)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G22),INDEX(R:R,$H22)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C22" s="12" t="str" cm="1">
+      <c r="C22" s="11" t="str" cm="1">
         <f t="array" ref="C22">IF(IFERROR(IFERROR(INDEX(L:L,$G22),INDEX(P:P,$H22)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G22),INDEX(P:P,$H22)),"-"))</f>
         <v>Facility/Site Address</v>
       </c>
-      <c r="D22" s="11" t="str" cm="1">
+      <c r="D22" s="10" t="str" cm="1">
         <f t="array" ref="D22">IF(IFERROR(IFERROR(INDEX(M:M,$G22),INDEX(S:S,$H22)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G22),INDEX(S:S,$H22)),"-"))</f>
         <v>Physical address of the regulated facility/site, which is not necessarily the mailing address.</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H22" s="22" t="e">
+      <c r="H22" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>51</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="11" t="str" cm="1">
+      <c r="B23" s="10" t="str" cm="1">
         <f t="array" ref="B23">IF(IFERROR(IFERROR(INDEX(K:K,$G23),INDEX(R:R,$H23)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G23),INDEX(R:R,$H23)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C23" s="12" t="str" cm="1">
+      <c r="C23" s="11" t="str" cm="1">
         <f t="array" ref="C23">IF(IFERROR(IFERROR(INDEX(L:L,$G23),INDEX(P:P,$H23)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G23),INDEX(P:P,$H23)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D23" s="11" t="str" cm="1">
+      <c r="D23" s="10" t="str" cm="1">
         <f t="array" ref="D23">IF(IFERROR(IFERROR(INDEX(M:M,$G23),INDEX(S:S,$H23)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G23),INDEX(S:S,$H23)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H23" s="22" t="e">
+      <c r="H23" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>52</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="11" t="str" cm="1">
+      <c r="B24" s="10" t="str" cm="1">
         <f t="array" ref="B24">IF(IFERROR(IFERROR(INDEX(K:K,$G24),INDEX(R:R,$H24)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G24),INDEX(R:R,$H24)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C24" s="12" t="str" cm="1">
+      <c r="C24" s="11" t="str" cm="1">
         <f t="array" ref="C24">IF(IFERROR(IFERROR(INDEX(L:L,$G24),INDEX(P:P,$H24)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G24),INDEX(P:P,$H24)),"-"))</f>
         <v>Facility/Site City</v>
       </c>
-      <c r="D24" s="11" t="str" cm="1">
+      <c r="D24" s="10" t="str" cm="1">
         <f t="array" ref="D24">IF(IFERROR(IFERROR(INDEX(M:M,$G24),INDEX(S:S,$H24)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G24),INDEX(S:S,$H24)),"-"))</f>
         <v>City where the regulated facility/site is located.</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H24" s="22" t="e">
+      <c r="H24" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>53</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="11" t="str" cm="1">
+      <c r="B25" s="10" t="str" cm="1">
         <f t="array" ref="B25">IF(IFERROR(IFERROR(INDEX(K:K,$G25),INDEX(R:R,$H25)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G25),INDEX(R:R,$H25)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C25" s="12" t="str" cm="1">
+      <c r="C25" s="11" t="str" cm="1">
         <f t="array" ref="C25">IF(IFERROR(IFERROR(INDEX(L:L,$G25),INDEX(P:P,$H25)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G25),INDEX(P:P,$H25)),"-"))</f>
         <v>Facility/Site State</v>
       </c>
-      <c r="D25" s="11" t="str" cm="1">
+      <c r="D25" s="10" t="str" cm="1">
         <f t="array" ref="D25">IF(IFERROR(IFERROR(INDEX(M:M,$G25),INDEX(S:S,$H25)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G25),INDEX(S:S,$H25)),"-"))</f>
         <v>State where the regulated facility/site is located.</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H25" s="22" t="e">
+      <c r="H25" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -3123,37 +3188,37 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="11" t="str" cm="1">
+      <c r="B26" s="10" t="str" cm="1">
         <f t="array" ref="B26">IF(IFERROR(IFERROR(INDEX(K:K,$G26),INDEX(R:R,$H26)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G26),INDEX(R:R,$H26)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C26" s="12" t="str" cm="1">
+      <c r="C26" s="11" t="str" cm="1">
         <f t="array" ref="C26">IF(IFERROR(IFERROR(INDEX(L:L,$G26),INDEX(P:P,$H26)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G26),INDEX(P:P,$H26)),"-"))</f>
         <v>Facility/Site Zip</v>
       </c>
-      <c r="D26" s="11" t="str" cm="1">
+      <c r="D26" s="10" t="str" cm="1">
         <f t="array" ref="D26">IF(IFERROR(IFERROR(INDEX(M:M,$G26),INDEX(S:S,$H26)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G26),INDEX(S:S,$H26)),"-"))</f>
         <v>United States 5 digit zip code for the location of the regulated facility/site.</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H26" s="22" t="e">
+      <c r="H26" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -3170,160 +3235,160 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="11" t="str" cm="1">
+      <c r="B27" s="10" t="str" cm="1">
         <f t="array" ref="B27">IF(IFERROR(IFERROR(INDEX(K:K,$G27),INDEX(R:R,$H27)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G27),INDEX(R:R,$H27)),"-"))</f>
         <v>Number</v>
       </c>
-      <c r="C27" s="12" t="str" cm="1">
+      <c r="C27" s="11" t="str" cm="1">
         <f t="array" ref="C27">IF(IFERROR(IFERROR(INDEX(L:L,$G27),INDEX(P:P,$H27)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G27),INDEX(P:P,$H27)),"-"))</f>
         <v>Latitude</v>
       </c>
-      <c r="D27" s="11" t="str" cm="1">
+      <c r="D27" s="10" t="str" cm="1">
         <f t="array" ref="D27">IF(IFERROR(IFERROR(INDEX(M:M,$G27),INDEX(S:S,$H27)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G27),INDEX(S:S,$H27)),"-"))</f>
         <v>Latitude used to map the regulated facility/site, expressed in decimal degrees.</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H27" s="22" t="e">
+      <c r="H27" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="12" t="s">
         <v>57</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="11" t="str" cm="1">
+      <c r="B28" s="10" t="str" cm="1">
         <f t="array" ref="B28">IF(IFERROR(IFERROR(INDEX(K:K,$G28),INDEX(R:R,$H28)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G28),INDEX(R:R,$H28)),"-"))</f>
         <v>Number</v>
       </c>
-      <c r="C28" s="12" t="str" cm="1">
+      <c r="C28" s="11" t="str" cm="1">
         <f t="array" ref="C28">IF(IFERROR(IFERROR(INDEX(L:L,$G28),INDEX(P:P,$H28)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G28),INDEX(P:P,$H28)),"-"))</f>
         <v>Longitude</v>
       </c>
-      <c r="D28" s="11" t="str" cm="1">
+      <c r="D28" s="10" t="str" cm="1">
         <f t="array" ref="D28">IF(IFERROR(IFERROR(INDEX(M:M,$G28),INDEX(S:S,$H28)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G28),INDEX(S:S,$H28)),"-"))</f>
         <v>Longitude used to map the regulated facility/site, expressed in decimal degrees.</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H28" s="22" t="e">
+      <c r="H28" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>58</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="11" t="str" cm="1">
+      <c r="B29" s="10" t="str" cm="1">
         <f t="array" ref="B29">IF(IFERROR(IFERROR(INDEX(K:K,$G29),INDEX(R:R,$H29)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G29),INDEX(R:R,$H29)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C29" s="12" t="str" cm="1">
+      <c r="C29" s="11" t="str" cm="1">
         <f t="array" ref="C29">IF(IFERROR(IFERROR(INDEX(L:L,$G29),INDEX(P:P,$H29)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G29),INDEX(P:P,$H29)),"-"))</f>
         <v>Facility/Site County</v>
       </c>
-      <c r="D29" s="11" t="str" cm="1">
+      <c r="D29" s="10" t="str" cm="1">
         <f t="array" ref="D29">IF(IFERROR(IFERROR(INDEX(M:M,$G29),INDEX(S:S,$H29)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G29),INDEX(S:S,$H29)),"-"))</f>
         <v>County where the regulated facility/site is located.</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H29" s="22" t="e">
+      <c r="H29" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>59</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="11" t="str" cm="1">
+      <c r="B30" s="10" t="str" cm="1">
         <f t="array" ref="B30">IF(IFERROR(IFERROR(INDEX(K:K,$G30),INDEX(R:R,$H30)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G30),INDEX(R:R,$H30)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C30" s="12" t="str" cm="1">
+      <c r="C30" s="11" t="str" cm="1">
         <f t="array" ref="C30">IF(IFERROR(IFERROR(INDEX(L:L,$G30),INDEX(P:P,$H30)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G30),INDEX(P:P,$H30)),"-"))</f>
         <v>Facility/Site Size</v>
       </c>
-      <c r="D30" s="11" t="str" cm="1">
+      <c r="D30" s="10" t="str" cm="1">
         <f t="array" ref="D30">IF(IFERROR(IFERROR(INDEX(M:M,$G30),INDEX(S:S,$H30)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G30),INDEX(S:S,$H30)),"-"))</f>
         <v>Area of the regulated facility expressed in acres or square feet</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H30" s="22" t="e">
+      <c r="H30" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -3340,37 +3405,37 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="11" t="str" cm="1">
+      <c r="B31" s="10" t="str" cm="1">
         <f t="array" ref="B31">IF(IFERROR(IFERROR(INDEX(K:K,$G31),INDEX(R:R,$H31)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G31),INDEX(R:R,$H31)),"-"))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C31" s="12" t="str" cm="1">
+      <c r="C31" s="11" t="str" cm="1">
         <f t="array" ref="C31">IF(IFERROR(IFERROR(INDEX(L:L,$G31),INDEX(P:P,$H31)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G31),INDEX(P:P,$H31)),"-"))</f>
         <v>Facility/Site Size Unit</v>
       </c>
-      <c r="D31" s="11" t="str" cm="1">
+      <c r="D31" s="10" t="str" cm="1">
         <f t="array" ref="D31">IF(IFERROR(IFERROR(INDEX(M:M,$G31),INDEX(S:S,$H31)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G31),INDEX(S:S,$H31)),"-"))</f>
         <v>Unit of measure of the facility size (Acres or SqFt).</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H31" s="22" t="e">
+      <c r="H31" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -3387,37 +3452,37 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="11" t="str" cm="1">
+      <c r="B32" s="10" t="str" cm="1">
         <f t="array" ref="B32">IF(IFERROR(IFERROR(INDEX(K:K,$G32),INDEX(R:R,$H32)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G32),INDEX(R:R,$H32)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C32" s="12" t="str" cm="1">
+      <c r="C32" s="11" t="str" cm="1">
         <f t="array" ref="C32">IF(IFERROR(IFERROR(INDEX(L:L,$G32),INDEX(P:P,$H32)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G32),INDEX(P:P,$H32)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D32" s="11" t="str" cm="1">
+      <c r="D32" s="10" t="str" cm="1">
         <f t="array" ref="D32">IF(IFERROR(IFERROR(INDEX(M:M,$G32),INDEX(S:S,$H32)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G32),INDEX(S:S,$H32)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H32" s="22" t="e">
+      <c r="H32" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -3434,115 +3499,115 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="11" t="str" cm="1">
+      <c r="B33" s="10" t="str" cm="1">
         <f t="array" ref="B33">IF(IFERROR(IFERROR(INDEX(K:K,$G33),INDEX(R:R,$H33)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G33),INDEX(R:R,$H33)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C33" s="12" t="str" cm="1">
+      <c r="C33" s="11" t="str" cm="1">
         <f t="array" ref="C33">IF(IFERROR(IFERROR(INDEX(L:L,$G33),INDEX(P:P,$H33)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G33),INDEX(P:P,$H33)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D33" s="11" t="str" cm="1">
+      <c r="D33" s="10" t="str" cm="1">
         <f t="array" ref="D33">IF(IFERROR(IFERROR(INDEX(M:M,$G33),INDEX(S:S,$H33)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G33),INDEX(S:S,$H33)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H33" s="22" t="e">
+      <c r="H33" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="12" t="s">
         <v>67</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="11" t="str" cm="1">
+      <c r="B34" s="10" t="str" cm="1">
         <f t="array" ref="B34">IF(IFERROR(IFERROR(INDEX(K:K,$G34),INDEX(R:R,$H34)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(K:K,$G34),INDEX(R:R,$H34)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="C34" s="12" t="str" cm="1">
+      <c r="C34" s="11" t="str" cm="1">
         <f t="array" ref="C34">IF(IFERROR(IFERROR(INDEX(L:L,$G34),INDEX(P:P,$H34)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(L:L,$G34),INDEX(P:P,$H34)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="D34" s="11" t="str" cm="1">
+      <c r="D34" s="10" t="str" cm="1">
         <f t="array" ref="D34">IF(IFERROR(IFERROR(INDEX(M:M,$G34),INDEX(S:S,$H34)),"-")=0,
 "-",
 IFERROR(IFERROR(INDEX(M:M,$G34),INDEX(S:S,$H34)),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H34" s="22" t="e">
+      <c r="H34" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="13" t="s">
         <v>68</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="21"/>
-      <c r="J35" s="14" t="s">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="20"/>
+      <c r="J35" s="13" t="s">
         <v>69</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="14" t="s">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="13" t="s">
         <v>70</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J37" s="14" t="s">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J37" s="13" t="s">
         <v>71</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="14" t="s">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J38" s="13" t="s">
         <v>72</v>
       </c>
       <c r="K38" s="4"/>
